--- a/xlsx/技能.xlsx
+++ b/xlsx/技能.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>自定义id
 &lt;%
@@ -55,6 +55,9 @@
     <t>是否被动技能</t>
   </si>
   <si>
+    <t>模板</t>
+  </si>
+  <si>
     <t>名字</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t xml:space="preserve"> passive</t>
   </si>
   <si>
+    <t>templateType</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>无目标</t>
   </si>
   <si>
+    <t>主动7</t>
+  </si>
+  <si>
     <t>极寒之触</t>
   </si>
   <si>
@@ -166,6 +175,9 @@
     <t>点</t>
   </si>
   <si>
+    <t>主动9</t>
+  </si>
+  <si>
     <t>万箭齐发</t>
   </si>
   <si>
@@ -181,6 +193,9 @@
     <t>寒冰W</t>
   </si>
   <si>
+    <t>Absk</t>
+  </si>
+  <si>
     <t>净化回血</t>
   </si>
   <si>
@@ -191,6 +206,42 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>寒冰E</t>
+  </si>
+  <si>
+    <t>主动11</t>
+  </si>
+  <si>
+    <t>暴风箭雨</t>
+  </si>
+  <si>
+    <t>|cff00ccff主动：发射大量箭雨打向远方，每支箭对路径敌人造成攻击力*10的伤害|n|n触发类型：主动选择目标点|n技能CD：15秒|r</t>
+  </si>
+  <si>
+    <t>ReplaceableTextures\CommandButtons\BTNFreezingBreath.blp</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>寒冰R</t>
+  </si>
+  <si>
+    <t>ANms</t>
+  </si>
+  <si>
+    <t>多次攻击</t>
+  </si>
+  <si>
+    <t>|cff00ccff主动开启：开启技能后攻击敌人会额外发生三支箭矢打击目标，每支箭矢会对目标造成攻击力*5的伤害|n|n触发类型：主动开启并且普攻|r</t>
+  </si>
+  <si>
+    <t>ReplaceableTextures\CommandButtons\BTNColdArrows.blp</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -1145,10 +1196,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1157,14 +1208,14 @@
     <col min="2" max="2" width="8.50442477876106" customWidth="1"/>
     <col min="3" max="3" width="15.9380530973451" customWidth="1"/>
     <col min="4" max="4" width="14.212389380531" customWidth="1"/>
-    <col min="5" max="5" width="8.10619469026549" customWidth="1"/>
-    <col min="6" max="6" width="17.3982300884956" customWidth="1"/>
-    <col min="7" max="7" width="43.8761061946903" customWidth="1"/>
-    <col min="8" max="8" width="10.3628318584071" customWidth="1"/>
-    <col min="9" max="9" width="8.83185840707965" customWidth="1"/>
+    <col min="5" max="6" width="8.10619469026549" customWidth="1"/>
+    <col min="7" max="7" width="17.3982300884956" customWidth="1"/>
+    <col min="8" max="8" width="43.8761061946903" customWidth="1"/>
+    <col min="9" max="9" width="10.3628318584071" customWidth="1"/>
+    <col min="10" max="10" width="8.83185840707965" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:16">
+    <row r="1" ht="31" customHeight="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,13 +1237,13 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1213,172 +1264,184 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
         <v>23</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
       <c r="K2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:16">
+    <row r="3" ht="17" customHeight="1" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="3">
         <v>10</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>1</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="1"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="1"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:15">
+    <row r="4" ht="17" customHeight="1" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4">
-        <v>1000</v>
+        <v>46</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="I4">
+        <v>10000</v>
+      </c>
+      <c r="J4">
         <v>200</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="L4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="3">
         <v>10</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>2</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -1386,56 +1449,123 @@
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="3">
         <v>10</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>1</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>2</v>
       </c>
-      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6"/>
-      <c r="O6" s="3"/>
+    <row r="6" spans="1:17">
+      <c r="A6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>200</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="3">
+        <v>20</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2</v>
+      </c>
       <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+    <row r="7" spans="1:17">
+      <c r="A7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="3">
+        <v>3</v>
+      </c>
+      <c r="N7" s="3">
+        <v>3</v>
+      </c>
+      <c r="O7" s="3">
+        <v>2</v>
+      </c>
       <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1451,8 +1581,9 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1468,8 +1599,9 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1485,16 +1617,17 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3">
       <formula1>"init_${id}()"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C3:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C3:C5">
       <formula1>"无目标,点,单位,单位或点"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D3:D5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
